--- a/BackTest/2019-10-19 BackTest ANKR.xlsx
+++ b/BackTest/2019-10-19 BackTest ANKR.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.1200000000000001</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-27.27272727272713</v>
+      </c>
       <c r="L12" t="n">
         <v>2.739</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.1400000000000001</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>9.09090909090887</v>
+      </c>
       <c r="L13" t="n">
         <v>2.738</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.1400000000000001</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
       <c r="L14" t="n">
         <v>2.739</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.1499999999999999</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>2.74</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.1499999999999999</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>2.74</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.1600000000000001</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>11.11111111111089</v>
+      </c>
       <c r="L17" t="n">
         <v>2.739</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.1699999999999999</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-25.00000000000014</v>
+      </c>
       <c r="L18" t="n">
         <v>2.739</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.1699999999999999</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-25.00000000000014</v>
+      </c>
       <c r="L19" t="n">
         <v>2.737</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.1699999999999999</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-42.85714285714268</v>
+      </c>
       <c r="L20" t="n">
         <v>2.734999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.1799999999999997</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>2.733</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.1799999999999997</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-50.00000000000055</v>
+      </c>
       <c r="L22" t="n">
         <v>2.733</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.1899999999999995</v>
       </c>
       <c r="K23" t="n">
-        <v>-22.22222222222209</v>
+        <v>-60.00000000000036</v>
       </c>
       <c r="L23" t="n">
         <v>2.73</v>
@@ -1466,7 +1488,7 @@
         <v>0.1999999999999993</v>
       </c>
       <c r="K24" t="n">
-        <v>-5.882352941176625</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L24" t="n">
         <v>2.727999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>0.2099999999999991</v>
       </c>
       <c r="K25" t="n">
-        <v>-5.882352941176379</v>
+        <v>-33.33333333333383</v>
       </c>
       <c r="L25" t="n">
         <v>2.725999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>0.2099999999999991</v>
       </c>
       <c r="K26" t="n">
-        <v>-12.5000000000001</v>
+        <v>-20</v>
       </c>
       <c r="L26" t="n">
         <v>2.723999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>0.2099999999999991</v>
       </c>
       <c r="K27" t="n">
-        <v>-12.5000000000001</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>2.722999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>0.2099999999999991</v>
       </c>
       <c r="K29" t="n">
-        <v>-16.66666666666685</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>2.722999999999999</v>
@@ -1760,7 +1782,7 @@
         <v>0.2299999999999991</v>
       </c>
       <c r="K30" t="n">
-        <v>-28.57142857142884</v>
+        <v>-60.00000000000036</v>
       </c>
       <c r="L30" t="n">
         <v>2.720999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>0.2299999999999991</v>
       </c>
       <c r="K31" t="n">
-        <v>-38.46153846153862</v>
+        <v>-60.00000000000036</v>
       </c>
       <c r="L31" t="n">
         <v>2.717999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>0.2599999999999989</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L32" t="n">
         <v>2.717999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>0.2599999999999989</v>
       </c>
       <c r="K33" t="n">
-        <v>-16.66666666666685</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>2.718999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>0.2599999999999989</v>
       </c>
       <c r="K34" t="n">
-        <v>-16.66666666666685</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L34" t="n">
         <v>2.718999999999999</v>
